--- a/BEMFSimulation/ExcelResults/PhaseVoltage3000.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage3000.xlsx
@@ -408,13 +408,13 @@
         <v>5.555555555555556e-05</v>
       </c>
       <c r="B2">
-        <v>2.202786508142651</v>
+        <v>3.081346066233503</v>
       </c>
       <c r="C2">
-        <v>197.2833116752809</v>
+        <v>199.998294047058</v>
       </c>
       <c r="D2">
-        <v>-207.7579506630185</v>
+        <v>-212.7433511464536</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B3">
-        <v>12.51970576005668</v>
+        <v>12.57721477731358</v>
       </c>
       <c r="C3">
-        <v>188.2398127031152</v>
+        <v>193.2203004923821</v>
       </c>
       <c r="D3">
-        <v>-205.3059858547604</v>
+        <v>-212.8488844693231</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B4">
-        <v>37.3970950750781</v>
+        <v>37.21140796221961</v>
       </c>
       <c r="C4">
-        <v>172.8555799704617</v>
+        <v>180.9215460435633</v>
       </c>
       <c r="D4">
-        <v>-196.9435630466479</v>
+        <v>-204.2050268518731</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B5">
-        <v>67.28334894193539</v>
+        <v>67.81624392413407</v>
       </c>
       <c r="C5">
-        <v>149.8604171700528</v>
+        <v>148.8039363027685</v>
       </c>
       <c r="D5">
-        <v>-190.3158022224105</v>
+        <v>-192.2105313768325</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002777777777777778</v>
       </c>
       <c r="B6">
-        <v>84.82716877477941</v>
+        <v>88.59249423217821</v>
       </c>
       <c r="C6">
-        <v>124.6278886663227</v>
+        <v>126.9753275232277</v>
       </c>
       <c r="D6">
-        <v>-195.6212329393371</v>
+        <v>-203.2469453550029</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B7">
-        <v>91.78456504645609</v>
+        <v>94.1029430865202</v>
       </c>
       <c r="C7">
-        <v>109.5327760352573</v>
+        <v>113.4638676316114</v>
       </c>
       <c r="D7">
-        <v>-200.5538141924332</v>
+        <v>-207.2159354950857</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0003888888888888889</v>
       </c>
       <c r="B8">
-        <v>99.503108265931</v>
+        <v>99.60859259629335</v>
       </c>
       <c r="C8">
-        <v>104.3405337437263</v>
+        <v>106.8500898096719</v>
       </c>
       <c r="D8">
-        <v>-207.0482870114369</v>
+        <v>-209.250182567165</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0004444444444444444</v>
       </c>
       <c r="B9">
-        <v>104.4244581282886</v>
+        <v>106.2008559246108</v>
       </c>
       <c r="C9">
-        <v>99.82773316878379</v>
+        <v>100.6420552865016</v>
       </c>
       <c r="D9">
-        <v>-207.7776412925679</v>
+        <v>-209.6589609610903</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0005</v>
       </c>
       <c r="B10">
-        <v>109.4103398366941</v>
+        <v>113.0031281902069</v>
       </c>
       <c r="C10">
-        <v>91.89844549796145</v>
+        <v>93.3482234321055</v>
       </c>
       <c r="D10">
-        <v>-201.2399145223191</v>
+        <v>-205.6933066835903</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0005555555555555556</v>
       </c>
       <c r="B11">
-        <v>124.3681313307885</v>
+        <v>128.6207169469761</v>
       </c>
       <c r="C11">
-        <v>85.08921732203945</v>
+        <v>89.16177792274077</v>
       </c>
       <c r="D11">
-        <v>-196.3796984964017</v>
+        <v>-206.3813907487373</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0006111111111111111</v>
       </c>
       <c r="B12">
-        <v>149.7660149005995</v>
+        <v>151.1954123399391</v>
       </c>
       <c r="C12">
-        <v>67.54106741181475</v>
+        <v>66.60638868975097</v>
       </c>
       <c r="D12">
-        <v>-190.9201662335914</v>
+        <v>-194.5325935687168</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B13">
-        <v>172.5130489760422</v>
+        <v>177.0504977237243</v>
       </c>
       <c r="C13">
-        <v>37.90410285045687</v>
+        <v>36.86560067072311</v>
       </c>
       <c r="D13">
-        <v>-197.1588469309579</v>
+        <v>-201.4376952712084</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0007222222222222222</v>
       </c>
       <c r="B14">
-        <v>188.1440658310059</v>
+        <v>195.43878650028</v>
       </c>
       <c r="C14">
-        <v>12.85503368288876</v>
+        <v>12.67617501719623</v>
       </c>
       <c r="D14">
-        <v>-204.9608384412535</v>
+        <v>-212.6139006478885</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0007777777777777777</v>
       </c>
       <c r="B15">
-        <v>196.928309926865</v>
+        <v>198.9133707679488</v>
       </c>
       <c r="C15">
-        <v>2.402115714883524</v>
+        <v>3.360679024580343</v>
       </c>
       <c r="D15">
-        <v>-206.9226660548673</v>
+        <v>-211.2036944091541</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0008333333333333333</v>
       </c>
       <c r="B16">
-        <v>207.182713971321</v>
+        <v>209.8148485047467</v>
       </c>
       <c r="C16">
-        <v>-0.006436007196186644</v>
+        <v>0.05821471588077221</v>
       </c>
       <c r="D16">
-        <v>-206.8646656491927</v>
+        <v>-210.5306968974924</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0008888888888888888</v>
       </c>
       <c r="B17">
-        <v>207.2383385376141</v>
+        <v>211.6019462304456</v>
       </c>
       <c r="C17">
-        <v>-2.231450773546417</v>
+        <v>-2.953713326417779</v>
       </c>
       <c r="D17">
-        <v>-197.3717894452615</v>
+        <v>-200.0355569808851</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0009444444444444444</v>
       </c>
       <c r="B18">
-        <v>204.8400913418261</v>
+        <v>213.171895040585</v>
       </c>
       <c r="C18">
-        <v>-12.37901762134275</v>
+        <v>-12.2595271425073</v>
       </c>
       <c r="D18">
-        <v>-188.2102580905374</v>
+        <v>-193.6663259018701</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.001</v>
       </c>
       <c r="B19">
-        <v>197.4632463384812</v>
+        <v>205.3701252994836</v>
       </c>
       <c r="C19">
-        <v>-37.23214587669992</v>
+        <v>-37.01879685380397</v>
       </c>
       <c r="D19">
-        <v>-173.1738854432962</v>
+        <v>-180.8395237004387</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.001055555555555556</v>
       </c>
       <c r="B20">
-        <v>191.0144209110229</v>
+        <v>193.7336765688862</v>
       </c>
       <c r="C20">
-        <v>-67.31844657273056</v>
+        <v>-67.1488668729564</v>
       </c>
       <c r="D20">
-        <v>-149.9720967183157</v>
+        <v>-148.9873190752271</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.001111111111111111</v>
       </c>
       <c r="B21">
-        <v>196.1586205710385</v>
+        <v>204.4421955913395</v>
       </c>
       <c r="C21">
-        <v>-84.96966814442308</v>
+        <v>-88.44136745269918</v>
       </c>
       <c r="D21">
-        <v>-124.6414846319551</v>
+        <v>-127.5590331817264</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B22">
-        <v>200.9492942490103</v>
+        <v>207.1294881125345</v>
       </c>
       <c r="C22">
-        <v>-91.76352160835505</v>
+        <v>-94.23156709640529</v>
       </c>
       <c r="D22">
-        <v>-109.7196130395747</v>
+        <v>-113.9746334158788</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001222222222222223</v>
       </c>
       <c r="B23">
-        <v>207.1331636623389</v>
+        <v>209.2562766950104</v>
       </c>
       <c r="C23">
-        <v>-99.49706909246969</v>
+        <v>-100.2022623183983</v>
       </c>
       <c r="D23">
-        <v>-104.4807843019374</v>
+        <v>-106.7993284384089</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001277777777777778</v>
       </c>
       <c r="B24">
-        <v>207.5536966788866</v>
+        <v>210.5445105457401</v>
       </c>
       <c r="C24">
-        <v>-104.4442425705366</v>
+        <v>-106.7997493007701</v>
       </c>
       <c r="D24">
-        <v>-99.7628565522628</v>
+        <v>-100.4312851378619</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B25">
-        <v>201.4999505394853</v>
+        <v>206.4580356708159</v>
       </c>
       <c r="C25">
-        <v>-109.5656260162147</v>
+        <v>-112.9904665209934</v>
       </c>
       <c r="D25">
-        <v>-91.80672606793249</v>
+        <v>-93.41381745039124</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.00138888888888889</v>
       </c>
       <c r="B26">
-        <v>196.9061548724009</v>
+        <v>206.1665320173621</v>
       </c>
       <c r="C26">
-        <v>-124.4860395162552</v>
+        <v>-127.9708627488183</v>
       </c>
       <c r="D26">
-        <v>-85.13839917689863</v>
+        <v>-89.44641545556395</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001444444444444445</v>
       </c>
       <c r="B27">
-        <v>191.6146103233417</v>
+        <v>193.5606592852334</v>
       </c>
       <c r="C27">
-        <v>-149.8248442254456</v>
+        <v>-150.70610300949</v>
       </c>
       <c r="D27">
-        <v>-67.62627691482426</v>
+        <v>-67.45299807242505</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001500000000000001</v>
       </c>
       <c r="B28">
-        <v>198.0866381227451</v>
+        <v>201.536893103091</v>
       </c>
       <c r="C28">
-        <v>-172.8828195207838</v>
+        <v>-177.5327158150633</v>
       </c>
       <c r="D28">
-        <v>-37.84609170663472</v>
+        <v>-37.104099426606</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001555555555555557</v>
       </c>
       <c r="B29">
-        <v>205.3745311499028</v>
+        <v>213.822580264395</v>
       </c>
       <c r="C29">
-        <v>-188.4532077633033</v>
+        <v>-195.8785035253691</v>
       </c>
       <c r="D29">
-        <v>-12.7172197914775</v>
+        <v>-12.36705452096393</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001611111111111112</v>
       </c>
       <c r="B30">
-        <v>206.8147719463527</v>
+        <v>212.3318554209901</v>
       </c>
       <c r="C30">
-        <v>-197.0337939486346</v>
+        <v>-199.193700424494</v>
       </c>
       <c r="D30">
-        <v>-2.274827397535095</v>
+        <v>-3.061281186181042</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001666666666666668</v>
       </c>
       <c r="B31">
-        <v>206.6789967023536</v>
+        <v>209.83871932248</v>
       </c>
       <c r="C31">
-        <v>-207.043654973833</v>
+        <v>-209.6236938486071</v>
       </c>
       <c r="D31">
-        <v>0.07451144767189888</v>
+        <v>0.06143616042356137</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001722222222222224</v>
       </c>
       <c r="B32">
-        <v>197.0822490838543</v>
+        <v>197.9302459969512</v>
       </c>
       <c r="C32">
-        <v>-207.2200126956804</v>
+        <v>-211.1563856475841</v>
       </c>
       <c r="D32">
-        <v>2.256279411508022</v>
+        <v>2.808226319727519</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001777777777777779</v>
       </c>
       <c r="B33">
-        <v>187.8956168054194</v>
+        <v>192.7001133934066</v>
       </c>
       <c r="C33">
-        <v>-204.9313581472948</v>
+        <v>-212.9843261537427</v>
       </c>
       <c r="D33">
-        <v>12.40605483570162</v>
+        <v>12.02229509138883</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001833333333333335</v>
       </c>
       <c r="B34">
-        <v>172.9107507608504</v>
+        <v>181.4792319490023</v>
       </c>
       <c r="C34">
-        <v>-197.4214000735678</v>
+        <v>-205.0343493733408</v>
       </c>
       <c r="D34">
-        <v>37.15711733756288</v>
+        <v>36.99953265890885</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.00188888888888889</v>
       </c>
       <c r="B35">
-        <v>149.9048301673879</v>
+        <v>149.2458851156961</v>
       </c>
       <c r="C35">
-        <v>-190.8626545379705</v>
+        <v>-192.6926985022566</v>
       </c>
       <c r="D35">
-        <v>67.22580792348637</v>
+        <v>67.23867337493638</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001944444444444446</v>
       </c>
       <c r="B36">
-        <v>124.724095814792</v>
+        <v>126.8615409911831</v>
       </c>
       <c r="C36">
-        <v>-195.9942670986582</v>
+        <v>-203.6309184291594</v>
       </c>
       <c r="D36">
-        <v>84.88571692867697</v>
+        <v>88.33988374786786</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.002000000000000002</v>
       </c>
       <c r="B37">
-        <v>109.7104138948312</v>
+        <v>113.3828306061231</v>
       </c>
       <c r="C37">
-        <v>-201.0796878740359</v>
+        <v>-207.3090753069854</v>
       </c>
       <c r="D37">
-        <v>91.82588686674858</v>
+        <v>94.32759009064665</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.002055555555555557</v>
       </c>
       <c r="B38">
-        <v>104.4189441660199</v>
+        <v>106.8482137395239</v>
       </c>
       <c r="C38">
-        <v>-207.2821528523796</v>
+        <v>-209.1994368560293</v>
       </c>
       <c r="D38">
-        <v>99.55543163790414</v>
+        <v>100.0120294551264</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.002111111111111113</v>
       </c>
       <c r="B39">
-        <v>99.83557946500154</v>
+        <v>100.8975787426523</v>
       </c>
       <c r="C39">
-        <v>-207.8822633186305</v>
+        <v>-210.133111424929</v>
       </c>
       <c r="D39">
-        <v>104.6454405103053</v>
+        <v>106.65679930549</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.002166666666666669</v>
       </c>
       <c r="B40">
-        <v>91.7885116034653</v>
+        <v>93.55307483446082</v>
       </c>
       <c r="C40">
-        <v>-201.1384019861576</v>
+        <v>-206.1007349355575</v>
       </c>
       <c r="D40">
-        <v>109.4896384668819</v>
+        <v>112.968359069305</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.002222222222222224</v>
       </c>
       <c r="B41">
-        <v>85.11852088635003</v>
+        <v>89.53420061357505</v>
       </c>
       <c r="C41">
-        <v>-196.4793470443086</v>
+        <v>-207.005669206293</v>
       </c>
       <c r="D41">
-        <v>124.4061680475373</v>
+        <v>128.5614148833818</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00227777777777778</v>
       </c>
       <c r="B42">
-        <v>67.67487006096317</v>
+        <v>66.93246727700885</v>
       </c>
       <c r="C42">
-        <v>-191.1647308830682</v>
+        <v>-194.2462140306061</v>
       </c>
       <c r="D42">
-        <v>149.8035452029246</v>
+        <v>151.2740039093206</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.002333333333333336</v>
       </c>
       <c r="B43">
-        <v>38.01892446407096</v>
+        <v>36.86699585074213</v>
       </c>
       <c r="C43">
-        <v>-197.3465505859385</v>
+        <v>-201.8466243741177</v>
       </c>
       <c r="D43">
-        <v>172.8951144744852</v>
+        <v>177.8059676608549</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.002388888888888891</v>
       </c>
       <c r="B44">
-        <v>12.89801168777621</v>
+        <v>12.33786069359255</v>
       </c>
       <c r="C44">
-        <v>-205.1214060298887</v>
+        <v>-213.7331417008032</v>
       </c>
       <c r="D44">
-        <v>188.6651011775655</v>
+        <v>195.7470301208146</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.002444444444444447</v>
       </c>
       <c r="B45">
-        <v>2.408178222270629</v>
+        <v>3.104364403692106</v>
       </c>
       <c r="C45">
-        <v>-207.1420190042796</v>
+        <v>-211.2872921321713</v>
       </c>
       <c r="D45">
-        <v>197.520923273129</v>
+        <v>198.0821310467328</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.002500000000000003</v>
       </c>
       <c r="B46">
-        <v>0.02910893310292817</v>
+        <v>0.2032653732626788</v>
       </c>
       <c r="C46">
-        <v>-207.1828883089926</v>
+        <v>-210.9986881000835</v>
       </c>
       <c r="D46">
-        <v>207.7462186408071</v>
+        <v>211.054322419362</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.002555555555555558</v>
       </c>
       <c r="B47">
-        <v>-2.210245843113356</v>
+        <v>-3.089678209506341</v>
       </c>
       <c r="C47">
-        <v>-197.2643844972041</v>
+        <v>-199.9850284182757</v>
       </c>
       <c r="D47">
-        <v>207.7528783049542</v>
+        <v>212.7434537600916</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.002611111111111114</v>
       </c>
       <c r="B48">
-        <v>-12.54351802069598</v>
+        <v>-12.60033300767863</v>
       </c>
       <c r="C48">
-        <v>-188.2296618306129</v>
+        <v>-193.2195255642157</v>
       </c>
       <c r="D48">
-        <v>205.3022725674701</v>
+        <v>212.8493319465422</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.00266666666666667</v>
       </c>
       <c r="B49">
-        <v>-37.44373161190245</v>
+        <v>-37.25770494929156</v>
       </c>
       <c r="C49">
-        <v>-172.8241997512958</v>
+        <v>-180.8746628410809</v>
       </c>
       <c r="D49">
-        <v>196.9270249051677</v>
+        <v>204.1783192303965</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002722222222222225</v>
       </c>
       <c r="B50">
-        <v>-67.31724912317554</v>
+        <v>-67.85417231561161</v>
       </c>
       <c r="C50">
-        <v>-149.8235566753118</v>
+        <v>-148.7674511232242</v>
       </c>
       <c r="D50">
-        <v>190.3157310733927</v>
+        <v>192.2140034755546</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002777777777777781</v>
       </c>
       <c r="B51">
-        <v>-84.84407540269356</v>
+        <v>-88.61224633983019</v>
       </c>
       <c r="C51">
-        <v>-124.5975900017515</v>
+        <v>-126.9491299258425</v>
       </c>
       <c r="D51">
-        <v>195.6318995787983</v>
+        <v>203.2639931374682</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002833333333333337</v>
       </c>
       <c r="B52">
-        <v>-91.79249867532796</v>
+        <v>-94.1041972173165</v>
       </c>
       <c r="C52">
-        <v>-109.5188083234246</v>
+        <v>-113.4495338695704</v>
       </c>
       <c r="D52">
-        <v>200.5598743806856</v>
+        <v>207.2126352385898</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002888888888888892</v>
       </c>
       <c r="B53">
-        <v>-99.5146172749603</v>
+        <v>-99.6214459211607</v>
       </c>
       <c r="C53">
-        <v>-104.3370661407975</v>
+        <v>-106.8458758451088</v>
       </c>
       <c r="D53">
-        <v>207.0576848770763</v>
+        <v>209.2591709785281</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002944444444444448</v>
       </c>
       <c r="B54">
-        <v>-104.4285103392569</v>
+        <v>-106.2073072407575</v>
       </c>
       <c r="C54">
-        <v>-99.81709248390008</v>
+        <v>-100.6289775028897</v>
       </c>
       <c r="D54">
-        <v>207.7702431224043</v>
+        <v>209.6521784300686</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.003000000000000004</v>
       </c>
       <c r="B55">
-        <v>-109.4240318336993</v>
+        <v>-113.0183676224435</v>
       </c>
       <c r="C55">
-        <v>-91.88992373555371</v>
+        <v>-93.339155939393</v>
       </c>
       <c r="D55">
-        <v>201.233153306987</v>
+        <v>205.68936616616</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.003055555555555559</v>
       </c>
       <c r="B56">
-        <v>-124.3974653339041</v>
+        <v>-128.649712472933</v>
       </c>
       <c r="C56">
-        <v>-85.07217739123406</v>
+        <v>-89.14776522058423</v>
       </c>
       <c r="D56">
-        <v>196.3683553832013</v>
+        <v>206.3756916459601</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.003111111111111115</v>
       </c>
       <c r="B57">
-        <v>-149.8035947032914</v>
+        <v>-151.2281306396349</v>
       </c>
       <c r="C57">
-        <v>-67.50767367144833</v>
+        <v>-66.56599394205001</v>
       </c>
       <c r="D57">
-        <v>190.9205087981442</v>
+        <v>194.5208947258663</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.00316666666666667</v>
       </c>
       <c r="B58">
-        <v>-172.5432986128941</v>
+        <v>-177.0890621164239</v>
       </c>
       <c r="C58">
-        <v>-37.85720552704868</v>
+        <v>-36.82148042151487</v>
       </c>
       <c r="D58">
-        <v>197.1736101802816</v>
+        <v>201.4606436676408</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.003222222222222226</v>
       </c>
       <c r="B59">
-        <v>-188.1570848109687</v>
+        <v>-195.4481934799762</v>
       </c>
       <c r="C59">
-        <v>-12.83130386875658</v>
+        <v>-12.65341229101186</v>
       </c>
       <c r="D59">
-        <v>204.966792737424</v>
+        <v>212.6188616108844</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.003277777777777782</v>
       </c>
       <c r="B60">
-        <v>-196.9440822267688</v>
+        <v>-198.925559873598</v>
       </c>
       <c r="C60">
-        <v>-2.394183406030759</v>
+        <v>-3.352670702356647</v>
       </c>
       <c r="D60">
-        <v>206.9239089805946</v>
+        <v>211.2019172744256</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.003333333333333337</v>
       </c>
       <c r="B61">
-        <v>-207.1907186900157</v>
+        <v>-209.8258949265179</v>
       </c>
       <c r="C61">
-        <v>0.00717659498078449</v>
+        <v>-0.05613705555990167</v>
       </c>
       <c r="D61">
-        <v>206.8585696961282</v>
+        <v>210.5214108648552</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.003388888888888893</v>
       </c>
       <c r="B62">
-        <v>-207.2352874139738</v>
+        <v>-211.6020377871805</v>
       </c>
       <c r="C62">
-        <v>2.239021883292058</v>
+        <v>2.961120223593794</v>
       </c>
       <c r="D62">
-        <v>197.355270524183</v>
+        <v>200.0214833411101</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.003444444444444449</v>
       </c>
       <c r="B63">
-        <v>-204.8349933412848</v>
+        <v>-213.1755147961119</v>
       </c>
       <c r="C63">
-        <v>12.40255094787623</v>
+        <v>12.28284663217324</v>
       </c>
       <c r="D63">
-        <v>188.1983407308481</v>
+        <v>193.6667946910057</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.003500000000000004</v>
       </c>
       <c r="B64">
-        <v>-197.448897462556</v>
+        <v>-205.3438054504921</v>
       </c>
       <c r="C64">
-        <v>37.27905888990607</v>
+        <v>37.06490125807787</v>
       </c>
       <c r="D64">
-        <v>173.1436258241961</v>
+        <v>180.7915779260917</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.00355555555555556</v>
       </c>
       <c r="B65">
-        <v>-191.0138848936099</v>
+        <v>-193.7369189205485</v>
       </c>
       <c r="C65">
-        <v>67.35296970387787</v>
+        <v>67.18683773478368</v>
       </c>
       <c r="D65">
-        <v>149.9345664064747</v>
+        <v>148.9510748697356</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.003611111111111116</v>
       </c>
       <c r="B66">
-        <v>-196.1685313448488</v>
+        <v>-204.4591671851347</v>
       </c>
       <c r="C66">
-        <v>84.98568697071701</v>
+        <v>88.46215566043439</v>
       </c>
       <c r="D66">
-        <v>124.6107548667856</v>
+        <v>127.5346484054028</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.003666666666666671</v>
       </c>
       <c r="B67">
-        <v>-200.9560204571158</v>
+        <v>-207.125455877503</v>
       </c>
       <c r="C67">
-        <v>91.77218656257219</v>
+        <v>94.23413721560526</v>
       </c>
       <c r="D67">
-        <v>109.7065275243143</v>
+        <v>113.9598244144657</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.003722222222222227</v>
       </c>
       <c r="B68">
-        <v>-207.1415684792667</v>
+        <v>-209.2650469268975</v>
       </c>
       <c r="C68">
-        <v>99.50823862979924</v>
+        <v>100.2141781591774</v>
       </c>
       <c r="D68">
-        <v>104.4766437246319</v>
+        <v>106.7935731987253</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.003777777777777783</v>
       </c>
       <c r="B69">
-        <v>-207.5464149274085</v>
+        <v>-210.5380584131798</v>
       </c>
       <c r="C69">
-        <v>104.4485955879292</v>
+        <v>106.805891150441</v>
       </c>
       <c r="D69">
-        <v>99.75224548384537</v>
+        <v>100.4182191095893</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.003833333333333338</v>
       </c>
       <c r="B70">
-        <v>-201.4934138273694</v>
+        <v>-206.4536953301239</v>
       </c>
       <c r="C70">
-        <v>109.579062033516</v>
+        <v>113.0045054821199</v>
       </c>
       <c r="D70">
-        <v>91.79770309292235</v>
+        <v>93.40530083801757</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.003888888888888894</v>
       </c>
       <c r="B71">
-        <v>-196.8953900881251</v>
+        <v>-206.1601912679335</v>
       </c>
       <c r="C71">
-        <v>124.5154168847061</v>
+        <v>128.0002047265175</v>
       </c>
       <c r="D71">
-        <v>85.12182218436249</v>
+        <v>89.43370140697793</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.003944444444444449</v>
       </c>
       <c r="B72">
-        <v>-191.6151241194609</v>
+        <v>-193.5470938152848</v>
       </c>
       <c r="C72">
-        <v>149.8627141933661</v>
+        <v>150.7387686511778</v>
       </c>
       <c r="D72">
-        <v>67.59271186729987</v>
+        <v>67.41216676726184</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.004000000000000004</v>
       </c>
       <c r="B73">
-        <v>-198.1021418294296</v>
+        <v>-201.5628959964837</v>
       </c>
       <c r="C73">
-        <v>172.9137289806944</v>
+        <v>177.5722003690318</v>
       </c>
       <c r="D73">
-        <v>37.79937047356485</v>
+        <v>37.05854940937795</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00405555555555556</v>
       </c>
       <c r="B74">
-        <v>-205.3771954341462</v>
+        <v>-213.8278306472412</v>
       </c>
       <c r="C74">
-        <v>188.4640553895718</v>
+        <v>195.8877919522067</v>
       </c>
       <c r="D74">
-        <v>12.69300592780836</v>
+        <v>12.34427883681277</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.004111111111111115</v>
       </c>
       <c r="B75">
-        <v>-206.8182363168017</v>
+        <v>-212.3282672555713</v>
       </c>
       <c r="C75">
-        <v>197.0516535498188</v>
+        <v>199.2049280900556</v>
       </c>
       <c r="D75">
-        <v>2.267054022323578</v>
+        <v>3.053449778129824</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="B76">
-        <v>-206.6723216288964</v>
+        <v>-209.8281671778336</v>
       </c>
       <c r="C76">
-        <v>207.0510685976971</v>
+        <v>209.6350123977684</v>
       </c>
       <c r="D76">
-        <v>-0.07537489616510351</v>
+        <v>-0.06336431241246721</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.004222222222222225</v>
       </c>
       <c r="B77">
-        <v>-197.063680597235</v>
+        <v>-197.9149740219035</v>
       </c>
       <c r="C77">
-        <v>207.2152743117272</v>
+        <v>211.1565290456533</v>
       </c>
       <c r="D77">
-        <v>-2.263414271516329</v>
+        <v>-2.815307018302904</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.004277777777777781</v>
       </c>
       <c r="B78">
-        <v>-187.8856589134369</v>
+        <v>-192.7016480236535</v>
       </c>
       <c r="C78">
-        <v>204.9282911936305</v>
+        <v>212.9864186431342</v>
       </c>
       <c r="D78">
-        <v>-12.42975100939536</v>
+        <v>-12.04478972023179</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.004333333333333336</v>
       </c>
       <c r="B79">
-        <v>-172.8799326653831</v>
+        <v>-181.4345297046445</v>
       </c>
       <c r="C79">
-        <v>197.4062795318374</v>
+        <v>205.0092772236839</v>
       </c>
       <c r="D79">
-        <v>-37.20395845778845</v>
+        <v>-37.04637479139836</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.004388888888888891</v>
       </c>
       <c r="B80">
-        <v>-149.8680493475768</v>
+        <v>-149.2076311680266</v>
       </c>
       <c r="C80">
-        <v>190.8621583234795</v>
+        <v>192.6947551286399</v>
       </c>
       <c r="D80">
-        <v>-67.26009425430284</v>
+        <v>-67.27697898483834</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.004444444444444446</v>
       </c>
       <c r="B81">
-        <v>-124.6925663603443</v>
+        <v>-126.8367167781301</v>
       </c>
       <c r="C81">
-        <v>196.0035543685363</v>
+        <v>203.6498228997548</v>
       </c>
       <c r="D81">
-        <v>-84.90168329818049</v>
+        <v>-88.36106506146592</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.004500000000000001</v>
       </c>
       <c r="B82">
-        <v>-109.6971071222009</v>
+        <v>-113.3677146948251</v>
       </c>
       <c r="C82">
-        <v>201.0863833285061</v>
+        <v>207.3041294582141</v>
       </c>
       <c r="D82">
-        <v>-91.8341473998786</v>
+        <v>-94.32923247659555</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.004555555555555557</v>
       </c>
       <c r="B83">
-        <v>-104.4145399040962</v>
+        <v>-106.8441892329335</v>
       </c>
       <c r="C83">
-        <v>207.2897702180322</v>
+        <v>209.2085091564455</v>
       </c>
       <c r="D83">
-        <v>-99.56629884875383</v>
+        <v>-100.0243441935213</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.004611111111111112</v>
       </c>
       <c r="B84">
-        <v>-99.82485481128045</v>
+        <v>-100.8844832731381</v>
       </c>
       <c r="C84">
-        <v>207.8750141461772</v>
+        <v>210.125957823694</v>
       </c>
       <c r="D84">
-        <v>-104.6496274024663</v>
+        <v>-106.6627686956509</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.004666666666666667</v>
       </c>
       <c r="B85">
-        <v>-91.78038355448491</v>
+        <v>-93.54416696471648</v>
       </c>
       <c r="C85">
-        <v>201.1323510514808</v>
+        <v>206.0976967793452</v>
       </c>
       <c r="D85">
-        <v>-109.5036150256587</v>
+        <v>-112.9831391126462</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.004722222222222222</v>
       </c>
       <c r="B86">
-        <v>-85.10221457757177</v>
+        <v>-89.52079859101542</v>
       </c>
       <c r="C86">
-        <v>196.4696052049464</v>
+        <v>206.9995881177987</v>
       </c>
       <c r="D86">
-        <v>-124.4365576101902</v>
+        <v>-128.5906518236243</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.004777777777777777</v>
       </c>
       <c r="B87">
-        <v>-67.64103832761836</v>
+        <v>-66.89157620733147</v>
       </c>
       <c r="C87">
-        <v>191.16398003449</v>
+        <v>194.2342283954026</v>
       </c>
       <c r="D87">
-        <v>-149.8408358112441</v>
+        <v>-151.3079823668832</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.004833333333333333</v>
       </c>
       <c r="B88">
-        <v>-37.97269987194795</v>
+        <v>-36.82183934986899</v>
       </c>
       <c r="C88">
-        <v>197.3620710459355</v>
+        <v>201.871172855169</v>
       </c>
       <c r="D88">
-        <v>-172.9262185925209</v>
+        <v>-177.8444048769324</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.004888888888888888</v>
       </c>
       <c r="B89">
-        <v>-12.8737274139219</v>
+        <v>-12.31491647118596</v>
       </c>
       <c r="C89">
-        <v>205.125799854509</v>
+        <v>213.7370154623953</v>
       </c>
       <c r="D89">
-        <v>-188.6768534619874</v>
+        <v>-195.7541190001727</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.004944444444444443</v>
       </c>
       <c r="B90">
-        <v>-2.400414695010566</v>
+        <v>-3.09730364632832</v>
       </c>
       <c r="C90">
-        <v>207.1447035334526</v>
+        <v>211.2850963146743</v>
       </c>
       <c r="D90">
-        <v>-197.5379467277554</v>
+        <v>-198.0959703871367</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/PhaseVoltage3000.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage3000.xlsx
@@ -408,13 +408,13 @@
         <v>5.555555555555556e-05</v>
       </c>
       <c r="B2">
-        <v>3.081346066233503</v>
+        <v>2.322472485497967</v>
       </c>
       <c r="C2">
-        <v>199.998294047058</v>
+        <v>202.1046922028113</v>
       </c>
       <c r="D2">
-        <v>-212.7433511464536</v>
+        <v>-212.9331602795423</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B3">
-        <v>12.57721477731358</v>
+        <v>12.89426182218084</v>
       </c>
       <c r="C3">
-        <v>193.2203004923821</v>
+        <v>193.1413936319869</v>
       </c>
       <c r="D3">
-        <v>-212.8488844693231</v>
+        <v>-210.6954870855757</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B4">
-        <v>37.21140796221961</v>
+        <v>38.36910725685608</v>
       </c>
       <c r="C4">
-        <v>180.9215460435633</v>
+        <v>177.3994601232023</v>
       </c>
       <c r="D4">
-        <v>-204.2050268518731</v>
+        <v>-202.2771404195557</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B5">
-        <v>67.81624392413407</v>
+        <v>68.92070058426263</v>
       </c>
       <c r="C5">
-        <v>148.8039363027685</v>
+        <v>153.4589321898538</v>
       </c>
       <c r="D5">
-        <v>-192.2105313768325</v>
+        <v>-195.0094481701751</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002777777777777778</v>
       </c>
       <c r="B6">
-        <v>88.59249423217821</v>
+        <v>87.03041397641276</v>
       </c>
       <c r="C6">
-        <v>126.9753275232277</v>
+        <v>127.7928146878585</v>
       </c>
       <c r="D6">
-        <v>-203.2469453550029</v>
+        <v>-200.677378179764</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B7">
-        <v>94.1029430865202</v>
+        <v>93.95892029459021</v>
       </c>
       <c r="C7">
-        <v>113.4638676316114</v>
+        <v>112.1858845115376</v>
       </c>
       <c r="D7">
-        <v>-207.2159354950857</v>
+        <v>-205.3168488844703</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0003888888888888889</v>
       </c>
       <c r="B8">
-        <v>99.60859259629335</v>
+        <v>102.2423416147682</v>
       </c>
       <c r="C8">
-        <v>106.8500898096719</v>
+        <v>107.2900710298379</v>
       </c>
       <c r="D8">
-        <v>-209.250182567165</v>
+        <v>-212.9213905317592</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0004444444444444444</v>
       </c>
       <c r="B9">
-        <v>106.2008559246108</v>
+        <v>107.1121193208383</v>
       </c>
       <c r="C9">
-        <v>100.6420552865016</v>
+        <v>102.3485741227648</v>
       </c>
       <c r="D9">
-        <v>-209.6589609610903</v>
+        <v>-213.1768448344583</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0005</v>
       </c>
       <c r="B10">
-        <v>113.0031281902069</v>
+        <v>112.2787939529654</v>
       </c>
       <c r="C10">
-        <v>93.3482234321055</v>
+        <v>94.1310088015522</v>
       </c>
       <c r="D10">
-        <v>-205.6933066835903</v>
+        <v>-206.2941173232056</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0005555555555555556</v>
       </c>
       <c r="B11">
-        <v>128.6207169469761</v>
+        <v>127.7115902648352</v>
       </c>
       <c r="C11">
-        <v>89.16177792274077</v>
+        <v>87.35443328875672</v>
       </c>
       <c r="D11">
-        <v>-206.3813907487373</v>
+        <v>-201.6386850286059</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0006111111111111111</v>
       </c>
       <c r="B12">
-        <v>151.1954123399391</v>
+        <v>153.5633685708791</v>
       </c>
       <c r="C12">
-        <v>66.60638868975097</v>
+        <v>69.10550456136269</v>
       </c>
       <c r="D12">
-        <v>-194.5325935687168</v>
+        <v>-195.7154597866074</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B13">
-        <v>177.0504977237243</v>
+        <v>176.7686966243255</v>
       </c>
       <c r="C13">
-        <v>36.86560067072311</v>
+        <v>38.79803080658481</v>
       </c>
       <c r="D13">
-        <v>-201.4376952712084</v>
+        <v>-202.2253430331239</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0007222222222222222</v>
       </c>
       <c r="B14">
-        <v>195.43878650028</v>
+        <v>192.919991121138</v>
       </c>
       <c r="C14">
-        <v>12.67617501719623</v>
+        <v>13.17277023582142</v>
       </c>
       <c r="D14">
-        <v>-212.6139006478885</v>
+        <v>-210.1461276902265</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0007777777777777777</v>
       </c>
       <c r="B15">
-        <v>198.9133707679488</v>
+        <v>201.8710445204593</v>
       </c>
       <c r="C15">
-        <v>3.360679024580343</v>
+        <v>2.441056713368556</v>
       </c>
       <c r="D15">
-        <v>-211.2036944091541</v>
+        <v>-212.0642646259008</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0008333333333333333</v>
       </c>
       <c r="B16">
-        <v>209.8148485047467</v>
+        <v>212.8022008330452</v>
       </c>
       <c r="C16">
-        <v>0.05821471588077221</v>
+        <v>-0.03813675207756106</v>
       </c>
       <c r="D16">
-        <v>-210.5306968974924</v>
+        <v>-212.6346400573344</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0008888888888888888</v>
       </c>
       <c r="B17">
-        <v>211.6019462304456</v>
+        <v>212.3044563618756</v>
       </c>
       <c r="C17">
-        <v>-2.953713326417779</v>
+        <v>-2.304987228772537</v>
       </c>
       <c r="D17">
-        <v>-200.0355569808851</v>
+        <v>-202.00616834811</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0009444444444444444</v>
       </c>
       <c r="B18">
-        <v>213.171895040585</v>
+        <v>210.2199874775587</v>
       </c>
       <c r="C18">
-        <v>-12.2595271425073</v>
+        <v>-12.74757508772886</v>
       </c>
       <c r="D18">
-        <v>-193.6663259018701</v>
+        <v>-193.1188187887009</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.001</v>
       </c>
       <c r="B19">
-        <v>205.3701252994836</v>
+        <v>202.8340812061023</v>
       </c>
       <c r="C19">
-        <v>-37.01879685380397</v>
+        <v>-38.19278205891022</v>
       </c>
       <c r="D19">
-        <v>-180.8395237004387</v>
+        <v>-177.7724599064867</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.001055555555555556</v>
       </c>
       <c r="B20">
-        <v>193.7336765688862</v>
+        <v>195.8107601819116</v>
       </c>
       <c r="C20">
-        <v>-67.1488668729564</v>
+        <v>-68.98414659192942</v>
       </c>
       <c r="D20">
-        <v>-148.9873190752271</v>
+        <v>-153.5977031903521</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.001111111111111111</v>
       </c>
       <c r="B21">
-        <v>204.4421955913395</v>
+        <v>201.2031455440158</v>
       </c>
       <c r="C21">
-        <v>-88.44136745269918</v>
+        <v>-87.14135959863242</v>
       </c>
       <c r="D21">
-        <v>-127.5590331817264</v>
+        <v>-127.8034403532872</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B22">
-        <v>207.1294881125345</v>
+        <v>205.7279675162108</v>
       </c>
       <c r="C22">
-        <v>-94.23156709640529</v>
+        <v>-93.89953459535499</v>
       </c>
       <c r="D22">
-        <v>-113.9746334158788</v>
+        <v>-112.3301396232543</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001222222222222223</v>
       </c>
       <c r="B23">
-        <v>209.2562766950104</v>
+        <v>212.9751015202133</v>
       </c>
       <c r="C23">
-        <v>-100.2022623183983</v>
+        <v>-102.2822459857657</v>
       </c>
       <c r="D23">
-        <v>-106.7993284384089</v>
+        <v>-107.3812268623872</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001277777777777778</v>
       </c>
       <c r="B24">
-        <v>210.5445105457401</v>
+        <v>212.9155829657833</v>
       </c>
       <c r="C24">
-        <v>-106.7997493007701</v>
+        <v>-107.1636808791254</v>
       </c>
       <c r="D24">
-        <v>-100.4312851378619</v>
+        <v>-102.222665403522</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B25">
-        <v>206.4580356708159</v>
+        <v>206.5342301559239</v>
       </c>
       <c r="C25">
-        <v>-112.9904665209934</v>
+        <v>-112.4348901877821</v>
       </c>
       <c r="D25">
-        <v>-93.41381745039124</v>
+        <v>-94.00639459458807</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.00138888888888889</v>
       </c>
       <c r="B26">
-        <v>206.1665320173621</v>
+        <v>202.1401583904845</v>
       </c>
       <c r="C26">
-        <v>-127.9708627488183</v>
+        <v>-127.7945630692323</v>
       </c>
       <c r="D26">
-        <v>-89.44641545556395</v>
+        <v>-87.3878976165264</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001444444444444445</v>
       </c>
       <c r="B27">
-        <v>193.5606592852334</v>
+        <v>196.4612315452664</v>
       </c>
       <c r="C27">
-        <v>-150.70610300949</v>
+        <v>-153.6122124969753</v>
       </c>
       <c r="D27">
-        <v>-67.45299807242505</v>
+        <v>-69.20289578181846</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001500000000000001</v>
       </c>
       <c r="B28">
-        <v>201.536893103091</v>
+        <v>203.1241244839587</v>
       </c>
       <c r="C28">
-        <v>-177.5327158150633</v>
+        <v>-177.1497060582206</v>
       </c>
       <c r="D28">
-        <v>-37.104099426606</v>
+        <v>-38.72689592757634</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001555555555555557</v>
       </c>
       <c r="B29">
-        <v>213.822580264395</v>
+        <v>210.5111519417171</v>
       </c>
       <c r="C29">
-        <v>-195.8785035253691</v>
+        <v>-193.2248261337719</v>
       </c>
       <c r="D29">
-        <v>-12.36705452096393</v>
+        <v>-13.01433125792853</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001611111111111112</v>
       </c>
       <c r="B30">
-        <v>212.3318554209901</v>
+        <v>212.0862387359857</v>
       </c>
       <c r="C30">
-        <v>-199.193700424494</v>
+        <v>-202.0614214623635</v>
       </c>
       <c r="D30">
-        <v>-3.061281186181042</v>
+        <v>-2.346647984421552</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001666666666666668</v>
       </c>
       <c r="B31">
-        <v>209.83871932248</v>
+        <v>212.4666504704928</v>
       </c>
       <c r="C31">
-        <v>-209.6236938486071</v>
+        <v>-212.6777355143869</v>
       </c>
       <c r="D31">
-        <v>0.06143616042356137</v>
+        <v>0.0801674524522622</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001722222222222224</v>
       </c>
       <c r="B32">
-        <v>197.9302459969512</v>
+        <v>201.6842418469319</v>
       </c>
       <c r="C32">
-        <v>-211.1563856475841</v>
+        <v>-212.2310075582687</v>
       </c>
       <c r="D32">
-        <v>2.808226319727519</v>
+        <v>2.348339645744241</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001777777777777779</v>
       </c>
       <c r="B33">
-        <v>192.7001133934066</v>
+        <v>192.6987272398586</v>
       </c>
       <c r="C33">
-        <v>-212.9843261537427</v>
+        <v>-210.2409210217141</v>
       </c>
       <c r="D33">
-        <v>12.02229509138883</v>
+        <v>12.80980861421185</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001833333333333335</v>
       </c>
       <c r="B34">
-        <v>181.4792319490023</v>
+        <v>177.4549363573292</v>
       </c>
       <c r="C34">
-        <v>-205.0343493733408</v>
+        <v>-202.7360708744509</v>
       </c>
       <c r="D34">
-        <v>36.99953265890885</v>
+        <v>38.12509373654516</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.00188888888888889</v>
       </c>
       <c r="B35">
-        <v>149.2458851156961</v>
+        <v>153.568656367282</v>
       </c>
       <c r="C35">
-        <v>-192.6926985022566</v>
+        <v>-195.6308363594233</v>
       </c>
       <c r="D35">
-        <v>67.23867337493638</v>
+        <v>68.84926825278484</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001944444444444446</v>
       </c>
       <c r="B36">
-        <v>126.8615409911831</v>
+        <v>127.8717608884677</v>
       </c>
       <c r="C36">
-        <v>-203.6309184291594</v>
+        <v>-200.9656878924808</v>
       </c>
       <c r="D36">
-        <v>88.33988374786786</v>
+        <v>87.05693176472504</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.002000000000000002</v>
       </c>
       <c r="B37">
-        <v>113.3828306061231</v>
+        <v>112.2941909336975</v>
       </c>
       <c r="C37">
-        <v>-207.3090753069854</v>
+        <v>-205.814014616669</v>
       </c>
       <c r="D37">
-        <v>94.32759009064665</v>
+        <v>93.97434916252556</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.002055555555555557</v>
       </c>
       <c r="B38">
-        <v>106.8482137395239</v>
+        <v>107.2894272358826</v>
       </c>
       <c r="C38">
-        <v>-209.1994368560293</v>
+        <v>-213.0594271410596</v>
       </c>
       <c r="D38">
-        <v>100.0120294551264</v>
+        <v>102.3160581414602</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.002111111111111113</v>
       </c>
       <c r="B39">
-        <v>100.8975787426523</v>
+        <v>102.3731130738118</v>
       </c>
       <c r="C39">
-        <v>-210.133111424929</v>
+        <v>-213.2210581405198</v>
       </c>
       <c r="D39">
-        <v>106.65679930549</v>
+        <v>107.2961644851923</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.002166666666666669</v>
       </c>
       <c r="B40">
-        <v>93.55307483446082</v>
+        <v>94.01983672347389</v>
       </c>
       <c r="C40">
-        <v>-206.1007349355575</v>
+        <v>-206.0547796425108</v>
       </c>
       <c r="D40">
-        <v>112.968359069305</v>
+        <v>112.2845196987109</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.002222222222222224</v>
       </c>
       <c r="B41">
-        <v>89.53420061357505</v>
+        <v>87.35664308324495</v>
       </c>
       <c r="C41">
-        <v>-207.005669206293</v>
+        <v>-201.694076666883</v>
       </c>
       <c r="D41">
-        <v>128.5614148833818</v>
+        <v>127.7144271047435</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00227777777777778</v>
       </c>
       <c r="B42">
-        <v>66.93246727700885</v>
+        <v>69.19861778805006</v>
       </c>
       <c r="C42">
-        <v>-194.2462140306061</v>
+        <v>-196.0237016697016</v>
       </c>
       <c r="D42">
-        <v>151.2740039093206</v>
+        <v>153.6657599445972</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.002333333333333336</v>
       </c>
       <c r="B43">
-        <v>36.86699585074213</v>
+        <v>38.91578877954257</v>
       </c>
       <c r="C43">
-        <v>-201.8466243741177</v>
+        <v>-202.4028304482626</v>
       </c>
       <c r="D43">
-        <v>177.8059676608549</v>
+        <v>177.1773956884489</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.002388888888888891</v>
       </c>
       <c r="B44">
-        <v>12.33786069359255</v>
+        <v>13.22203665875141</v>
       </c>
       <c r="C44">
-        <v>-213.7331417008032</v>
+        <v>-210.1857306609874</v>
       </c>
       <c r="D44">
-        <v>195.7470301208146</v>
+        <v>193.3669403322432</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.002444444444444447</v>
       </c>
       <c r="B45">
-        <v>3.104364403692106</v>
+        <v>2.456750486570375</v>
       </c>
       <c r="C45">
-        <v>-211.2872921321713</v>
+        <v>-212.2857429021805</v>
       </c>
       <c r="D45">
-        <v>198.0821310467328</v>
+        <v>202.4818541490972</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.002500000000000003</v>
       </c>
       <c r="B46">
-        <v>0.2032653732626788</v>
+        <v>-0.01119290610945844</v>
       </c>
       <c r="C46">
-        <v>-210.9986881000835</v>
+        <v>-213.0184613733455</v>
       </c>
       <c r="D46">
-        <v>211.054322419362</v>
+        <v>213.4315130136262</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.002555555555555558</v>
       </c>
       <c r="B47">
-        <v>-3.089678209506341</v>
+        <v>-2.330293878244766</v>
       </c>
       <c r="C47">
-        <v>-199.9850284182757</v>
+        <v>-202.0867228927019</v>
       </c>
       <c r="D47">
-        <v>212.7434537600916</v>
+        <v>212.9297269896108</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.002611111111111114</v>
       </c>
       <c r="B48">
-        <v>-12.60033300767863</v>
+        <v>-12.91829669576514</v>
       </c>
       <c r="C48">
-        <v>-193.2195255642157</v>
+        <v>-193.1298445206159</v>
       </c>
       <c r="D48">
-        <v>212.8493319465422</v>
+        <v>210.6901842607067</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.00266666666666667</v>
       </c>
       <c r="B49">
-        <v>-37.25770494929156</v>
+        <v>-38.41691610537865</v>
       </c>
       <c r="C49">
-        <v>-180.8746628410809</v>
+        <v>-177.3670565277501</v>
       </c>
       <c r="D49">
-        <v>204.1783192303965</v>
+        <v>202.2606676255397</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002722222222222225</v>
       </c>
       <c r="B50">
-        <v>-67.85417231561161</v>
+        <v>-68.95567180465925</v>
       </c>
       <c r="C50">
-        <v>-148.7674511232242</v>
+        <v>-153.4218454209396</v>
       </c>
       <c r="D50">
-        <v>192.2140034755546</v>
+        <v>195.0095220897985</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002777777777777781</v>
       </c>
       <c r="B51">
-        <v>-88.61224633983019</v>
+        <v>-87.04699478939871</v>
       </c>
       <c r="C51">
-        <v>-126.9491299258425</v>
+        <v>-127.760523822695</v>
       </c>
       <c r="D51">
-        <v>203.2639931374682</v>
+        <v>200.6870769423798</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002833333333333337</v>
       </c>
       <c r="B52">
-        <v>-94.1041972173165</v>
+        <v>-93.9684805825823</v>
       </c>
       <c r="C52">
-        <v>-113.4495338695704</v>
+        <v>-112.1734568405806</v>
       </c>
       <c r="D52">
-        <v>207.2126352385898</v>
+        <v>205.3249569783939</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002888888888888892</v>
       </c>
       <c r="B53">
-        <v>-99.6214459211607</v>
+        <v>-102.2536842355753</v>
       </c>
       <c r="C53">
-        <v>-106.8458758451088</v>
+        <v>-107.2862766544394</v>
       </c>
       <c r="D53">
-        <v>209.2591709785281</v>
+        <v>212.9316035624066</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002944444444444448</v>
       </c>
       <c r="B54">
-        <v>-106.2073072407575</v>
+        <v>-107.115761470986</v>
       </c>
       <c r="C54">
-        <v>-100.6289775028897</v>
+        <v>-102.3364485260243</v>
       </c>
       <c r="D54">
-        <v>209.6521784300686</v>
+        <v>213.1671904045164</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.003000000000000004</v>
       </c>
       <c r="B55">
-        <v>-113.0183676224435</v>
+        <v>-112.2929148218421</v>
       </c>
       <c r="C55">
-        <v>-93.339155939393</v>
+        <v>-94.12250090189492</v>
       </c>
       <c r="D55">
-        <v>205.68936616616</v>
+        <v>206.2875093515684</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.003055555555555559</v>
       </c>
       <c r="B56">
-        <v>-128.649712472933</v>
+        <v>-127.741846428162</v>
       </c>
       <c r="C56">
-        <v>-89.14776522058423</v>
+        <v>-87.33697206462138</v>
       </c>
       <c r="D56">
-        <v>206.3756916459601</v>
+        <v>201.6276449965393</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.003111111111111115</v>
       </c>
       <c r="B57">
-        <v>-151.2281306396349</v>
+        <v>-153.6016804728388</v>
       </c>
       <c r="C57">
-        <v>-66.56599394205001</v>
+        <v>-69.07100166409552</v>
       </c>
       <c r="D57">
-        <v>194.5208947258663</v>
+        <v>195.7152305382948</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.00316666666666667</v>
       </c>
       <c r="B58">
-        <v>-177.0890621164239</v>
+        <v>-176.7998045639327</v>
       </c>
       <c r="C58">
-        <v>-36.82148042151487</v>
+        <v>-38.75054093713582</v>
       </c>
       <c r="D58">
-        <v>201.4606436676408</v>
+        <v>202.2410006868038</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.003222222222222226</v>
       </c>
       <c r="B59">
-        <v>-195.4481934799762</v>
+        <v>-192.93249214365</v>
       </c>
       <c r="C59">
-        <v>-12.65341229101186</v>
+        <v>-13.14821156094936</v>
       </c>
       <c r="D59">
-        <v>212.6188616108844</v>
+        <v>210.1510157135446</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.003277777777777782</v>
       </c>
       <c r="B60">
-        <v>-198.925559873598</v>
+        <v>-201.8897882300664</v>
       </c>
       <c r="C60">
-        <v>-3.352670702356647</v>
+        <v>-2.432896249824068</v>
       </c>
       <c r="D60">
-        <v>211.2019172744256</v>
+        <v>212.0680879891139</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.003333333333333337</v>
       </c>
       <c r="B61">
-        <v>-209.8258949265179</v>
+        <v>-212.8094701244388</v>
       </c>
       <c r="C61">
-        <v>-0.05613705555990167</v>
+        <v>0.03887022134288487</v>
       </c>
       <c r="D61">
-        <v>210.5214108648552</v>
+        <v>212.627741299602</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.003388888888888893</v>
       </c>
       <c r="B62">
-        <v>-211.6020377871805</v>
+        <v>-212.2994147915917</v>
       </c>
       <c r="C62">
-        <v>2.961120223593794</v>
+        <v>2.31242046450697</v>
       </c>
       <c r="D62">
-        <v>200.0214833411101</v>
+        <v>201.9871382947465</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.003444444444444449</v>
       </c>
       <c r="B63">
-        <v>-213.1755147961119</v>
+        <v>-210.2162663554585</v>
       </c>
       <c r="C63">
-        <v>12.28284663217324</v>
+        <v>12.77187308712846</v>
       </c>
       <c r="D63">
-        <v>193.6667946910057</v>
+        <v>193.1080539257938</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.003500000000000004</v>
       </c>
       <c r="B64">
-        <v>-205.3438054504921</v>
+        <v>-202.8188072696676</v>
       </c>
       <c r="C64">
-        <v>37.06490125807787</v>
+        <v>38.24077586737432</v>
       </c>
       <c r="D64">
-        <v>180.7915779260917</v>
+        <v>177.7402101398749</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.00355555555555556</v>
       </c>
       <c r="B65">
-        <v>-193.7369189205485</v>
+        <v>-195.8100944055064</v>
       </c>
       <c r="C65">
-        <v>67.18683773478368</v>
+        <v>69.01925567788459</v>
       </c>
       <c r="D65">
-        <v>148.9510748697356</v>
+        <v>153.5597037426936</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.003611111111111116</v>
       </c>
       <c r="B66">
-        <v>-204.4591671851347</v>
+        <v>-201.2148288031669</v>
       </c>
       <c r="C66">
-        <v>88.46215566043439</v>
+        <v>87.15890703707014</v>
       </c>
       <c r="D66">
-        <v>127.5346484054028</v>
+        <v>127.7731431764687</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.003666666666666671</v>
       </c>
       <c r="B67">
-        <v>-207.125455877503</v>
+        <v>-205.7328927320349</v>
       </c>
       <c r="C67">
-        <v>94.23413721560526</v>
+        <v>93.90715511306186</v>
       </c>
       <c r="D67">
-        <v>113.9598244144657</v>
+        <v>112.3152714598309</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.003722222222222227</v>
       </c>
       <c r="B68">
-        <v>-209.2650469268975</v>
+        <v>-212.9851274245223</v>
       </c>
       <c r="C68">
-        <v>100.2141781591774</v>
+        <v>102.2942343443965</v>
       </c>
       <c r="D68">
-        <v>106.7935731987253</v>
+        <v>107.3779803991415</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.003777777777777783</v>
       </c>
       <c r="B69">
-        <v>-210.5380584131798</v>
+        <v>-212.9061696167023</v>
       </c>
       <c r="C69">
-        <v>106.805891150441</v>
+        <v>107.1674671954584</v>
       </c>
       <c r="D69">
-        <v>100.4182191095893</v>
+        <v>102.2101931441076</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.003833333333333338</v>
       </c>
       <c r="B70">
-        <v>-206.4536953301239</v>
+        <v>-206.5288919735212</v>
       </c>
       <c r="C70">
-        <v>113.0045054821199</v>
+        <v>112.4494445499188</v>
       </c>
       <c r="D70">
-        <v>93.40530083801757</v>
+        <v>93.99849750827651</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.003888888888888894</v>
       </c>
       <c r="B71">
-        <v>-206.1601912679335</v>
+        <v>-202.1301100226834</v>
       </c>
       <c r="C71">
-        <v>128.0002047265175</v>
+        <v>127.8253973621929</v>
       </c>
       <c r="D71">
-        <v>89.43370140697793</v>
+        <v>87.37119479086675</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.003944444444444449</v>
       </c>
       <c r="B72">
-        <v>-193.5470938152848</v>
+        <v>-196.4607600162436</v>
       </c>
       <c r="C72">
-        <v>150.7387686511778</v>
+        <v>153.6500829891434</v>
       </c>
       <c r="D72">
-        <v>67.41216676726184</v>
+        <v>69.16792484004147</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.004000000000000004</v>
       </c>
       <c r="B73">
-        <v>-201.5628959964837</v>
+        <v>-203.1397287863208</v>
       </c>
       <c r="C73">
-        <v>177.5722003690318</v>
+        <v>177.1813289990448</v>
       </c>
       <c r="D73">
-        <v>37.05854940937795</v>
+        <v>38.67892518206961</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00405555555555556</v>
       </c>
       <c r="B74">
-        <v>-213.8278306472412</v>
+        <v>-210.5152903423528</v>
       </c>
       <c r="C74">
-        <v>195.8877919522067</v>
+        <v>193.237269481332</v>
       </c>
       <c r="D74">
-        <v>12.34427883681277</v>
+        <v>12.99005588418861</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.004111111111111115</v>
       </c>
       <c r="B75">
-        <v>-212.3282672555713</v>
+        <v>-212.0888291863488</v>
       </c>
       <c r="C75">
-        <v>199.2049280900556</v>
+        <v>202.0786383416782</v>
       </c>
       <c r="D75">
-        <v>3.053449778129824</v>
+        <v>2.338444473922729</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="B76">
-        <v>-209.8281671778336</v>
+        <v>-212.4601896151477</v>
       </c>
       <c r="C76">
-        <v>209.6350123977684</v>
+        <v>212.6856411742058</v>
       </c>
       <c r="D76">
-        <v>-0.06336431241246721</v>
+        <v>-0.0810521761715477</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.004222222222222225</v>
       </c>
       <c r="B77">
-        <v>-197.9149740219035</v>
+        <v>-201.6662068183954</v>
       </c>
       <c r="C77">
-        <v>211.1565290456533</v>
+        <v>212.2274590643242</v>
       </c>
       <c r="D77">
-        <v>-2.815307018302904</v>
+        <v>-2.356269628129154</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.004277777777777781</v>
       </c>
       <c r="B78">
-        <v>-192.7016480236535</v>
+        <v>-192.6874494260052</v>
       </c>
       <c r="C78">
-        <v>212.9864186431342</v>
+        <v>210.2366389577753</v>
       </c>
       <c r="D78">
-        <v>-12.04478972023179</v>
+        <v>-12.83369985185509</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.004333333333333336</v>
       </c>
       <c r="B79">
-        <v>-181.4345297046445</v>
+        <v>-177.4223701208726</v>
       </c>
       <c r="C79">
-        <v>205.0092772236839</v>
+        <v>202.7199571553834</v>
       </c>
       <c r="D79">
-        <v>-37.04637479139836</v>
+        <v>-38.17260042716653</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.004388888888888891</v>
       </c>
       <c r="B80">
-        <v>-149.2076311680266</v>
+        <v>-153.5303555450124</v>
       </c>
       <c r="C80">
-        <v>192.6947551286399</v>
+        <v>195.6289825500107</v>
       </c>
       <c r="D80">
-        <v>-67.27697898483834</v>
+        <v>-68.88386408752223</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.004444444444444446</v>
       </c>
       <c r="B81">
-        <v>-126.8367167781301</v>
+        <v>-127.8410397547558</v>
       </c>
       <c r="C81">
-        <v>203.6498228997548</v>
+        <v>200.9772392051445</v>
       </c>
       <c r="D81">
-        <v>-88.36106506146592</v>
+        <v>-87.07471641719616</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.004500000000000001</v>
       </c>
       <c r="B82">
-        <v>-113.3677146948251</v>
+        <v>-112.2802326459627</v>
       </c>
       <c r="C82">
-        <v>207.3041294582141</v>
+        <v>205.8208517878547</v>
       </c>
       <c r="D82">
-        <v>-94.32923247659555</v>
+        <v>-93.98297429700345</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.004555555555555557</v>
       </c>
       <c r="B83">
-        <v>-106.8441892329335</v>
+        <v>-107.2866145252715</v>
       </c>
       <c r="C83">
-        <v>209.2085091564455</v>
+        <v>213.0699021873113</v>
       </c>
       <c r="D83">
-        <v>-100.0243441935213</v>
+        <v>-102.3284826159411</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.004611111111111112</v>
       </c>
       <c r="B84">
-        <v>-100.8844832731381</v>
+        <v>-102.3600507244259</v>
       </c>
       <c r="C84">
-        <v>210.125957823694</v>
+        <v>213.210120592077</v>
       </c>
       <c r="D84">
-        <v>-106.6627686956509</v>
+        <v>-107.2989417356557</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.004666666666666667</v>
       </c>
       <c r="B85">
-        <v>-93.54416696471648</v>
+        <v>-94.01111816664489</v>
       </c>
       <c r="C85">
-        <v>206.0976967793452</v>
+        <v>206.0479134021197</v>
       </c>
       <c r="D85">
-        <v>-112.9831391126462</v>
+        <v>-112.2978955176504</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.004722222222222222</v>
       </c>
       <c r="B86">
-        <v>-89.52079859101542</v>
+        <v>-87.34037081230551</v>
       </c>
       <c r="C86">
-        <v>206.9995881177987</v>
+        <v>201.6847102369166</v>
       </c>
       <c r="D86">
-        <v>-128.5906518236243</v>
+        <v>-127.7458066988217</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.004777777777777777</v>
       </c>
       <c r="B87">
-        <v>-66.89157620733147</v>
+        <v>-69.16373265132239</v>
       </c>
       <c r="C87">
-        <v>194.2342283954026</v>
+        <v>196.0234442613098</v>
       </c>
       <c r="D87">
-        <v>-151.3079823668832</v>
+        <v>-153.7045524494918</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.004833333333333333</v>
       </c>
       <c r="B88">
-        <v>-36.82183934986899</v>
+        <v>-38.86852088802129</v>
       </c>
       <c r="C88">
-        <v>201.871172855169</v>
+        <v>202.4185623402287</v>
       </c>
       <c r="D88">
-        <v>-177.8444048769324</v>
+        <v>-177.2090765883407</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.004888888888888888</v>
       </c>
       <c r="B89">
-        <v>-12.31491647118596</v>
+        <v>-13.1973513624635</v>
       </c>
       <c r="C89">
-        <v>213.7370154623953</v>
+        <v>210.189537187456</v>
       </c>
       <c r="D89">
-        <v>-195.7541190001727</v>
+        <v>-193.3783358702856</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.004944444444444443</v>
       </c>
       <c r="B90">
-        <v>-3.09730364632832</v>
+        <v>-2.448804216192008</v>
       </c>
       <c r="C90">
-        <v>211.2850963146743</v>
+        <v>212.2903732308971</v>
       </c>
       <c r="D90">
-        <v>-198.0959703871367</v>
+        <v>-202.501115539685</v>
       </c>
     </row>
   </sheetData>
